--- a/設計書_打刻侍/50_単体テスト/仕様書_(C000)共通ヘッダー.xlsx
+++ b/設計書_打刻侍/50_単体テスト/仕様書_(C000)共通ヘッダー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubSample\dakokusamurai-git-repository\設計書_打刻侍\50_単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5098470-5654-4BBE-9BAC-5BFA0FAAAC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4398429-3B98-464A-958E-F9F7944B9528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{745FC034-C374-47E9-8C14-3AA6EA33CBC4}"/>
   </bookViews>
@@ -150,13 +150,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>フィルターを通す</t>
-    <rPh sb="6" eb="7">
-      <t>トオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>index.jspに戻る</t>
     <rPh sb="10" eb="11">
       <t>モド</t>
@@ -225,19 +218,44 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>セッション情報を破棄する</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハキ</t>
+    <t>index.jspに遷移する</t>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>index.jspに遷移する</t>
-    <rPh sb="10" eb="12">
-      <t>センイ</t>
+    <t>セッション情報を破棄　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認方法：もう一度直接URLを入力し共通ヘッダーを呼び出す。Index.jspに戻るのか</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -416,7 +434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -480,11 +498,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -822,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0B7A4F-762B-45BB-B437-FD784306B29C}">
   <dimension ref="A1:EF231"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20:AM20"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CD16" sqref="CD16:DD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1533,126 +1560,126 @@
       <c r="EF5" s="1"/>
     </row>
     <row r="6" spans="1:136" x14ac:dyDescent="0.45">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="21"/>
-      <c r="AM6" s="21"/>
-      <c r="AN6" s="21" t="s">
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="21"/>
-      <c r="AQ6" s="21"/>
-      <c r="AR6" s="21"/>
-      <c r="AS6" s="21"/>
-      <c r="AT6" s="21"/>
-      <c r="AU6" s="21"/>
-      <c r="AV6" s="21"/>
-      <c r="AW6" s="21"/>
-      <c r="AX6" s="21"/>
-      <c r="AY6" s="21"/>
-      <c r="AZ6" s="21"/>
-      <c r="BA6" s="21"/>
-      <c r="BB6" s="21"/>
-      <c r="BC6" s="21"/>
-      <c r="BD6" s="21"/>
-      <c r="BE6" s="21"/>
-      <c r="BF6" s="21"/>
-      <c r="BG6" s="21"/>
-      <c r="BH6" s="21"/>
-      <c r="BI6" s="21"/>
-      <c r="BJ6" s="21"/>
-      <c r="BK6" s="21"/>
-      <c r="BL6" s="21"/>
-      <c r="BM6" s="21"/>
-      <c r="BN6" s="21"/>
-      <c r="BO6" s="21"/>
-      <c r="BP6" s="21"/>
-      <c r="BQ6" s="21"/>
-      <c r="BR6" s="21"/>
-      <c r="BS6" s="21" t="s">
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="22"/>
+      <c r="AQ6" s="22"/>
+      <c r="AR6" s="22"/>
+      <c r="AS6" s="22"/>
+      <c r="AT6" s="22"/>
+      <c r="AU6" s="22"/>
+      <c r="AV6" s="22"/>
+      <c r="AW6" s="22"/>
+      <c r="AX6" s="22"/>
+      <c r="AY6" s="22"/>
+      <c r="AZ6" s="22"/>
+      <c r="BA6" s="22"/>
+      <c r="BB6" s="22"/>
+      <c r="BC6" s="22"/>
+      <c r="BD6" s="22"/>
+      <c r="BE6" s="22"/>
+      <c r="BF6" s="22"/>
+      <c r="BG6" s="22"/>
+      <c r="BH6" s="22"/>
+      <c r="BI6" s="22"/>
+      <c r="BJ6" s="22"/>
+      <c r="BK6" s="22"/>
+      <c r="BL6" s="22"/>
+      <c r="BM6" s="22"/>
+      <c r="BN6" s="22"/>
+      <c r="BO6" s="22"/>
+      <c r="BP6" s="22"/>
+      <c r="BQ6" s="22"/>
+      <c r="BR6" s="22"/>
+      <c r="BS6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="BT6" s="21"/>
-      <c r="BU6" s="21"/>
-      <c r="BV6" s="21"/>
-      <c r="BW6" s="21"/>
-      <c r="BX6" s="21"/>
-      <c r="BY6" s="21"/>
-      <c r="BZ6" s="21"/>
-      <c r="CA6" s="21"/>
-      <c r="CB6" s="21"/>
-      <c r="CC6" s="21"/>
-      <c r="CD6" s="21" t="s">
+      <c r="BT6" s="22"/>
+      <c r="BU6" s="22"/>
+      <c r="BV6" s="22"/>
+      <c r="BW6" s="22"/>
+      <c r="BX6" s="22"/>
+      <c r="BY6" s="22"/>
+      <c r="BZ6" s="22"/>
+      <c r="CA6" s="22"/>
+      <c r="CB6" s="22"/>
+      <c r="CC6" s="22"/>
+      <c r="CD6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="CE6" s="21"/>
-      <c r="CF6" s="21"/>
-      <c r="CG6" s="21"/>
-      <c r="CH6" s="21"/>
-      <c r="CI6" s="21"/>
-      <c r="CJ6" s="21"/>
-      <c r="CK6" s="21"/>
-      <c r="CL6" s="21"/>
-      <c r="CM6" s="21"/>
-      <c r="CN6" s="21"/>
-      <c r="CO6" s="21"/>
-      <c r="CP6" s="21"/>
-      <c r="CQ6" s="21"/>
-      <c r="CR6" s="21"/>
-      <c r="CS6" s="21"/>
-      <c r="CT6" s="21"/>
-      <c r="CU6" s="21"/>
-      <c r="CV6" s="21"/>
-      <c r="CW6" s="21"/>
-      <c r="CX6" s="21"/>
-      <c r="CY6" s="21"/>
-      <c r="CZ6" s="21"/>
-      <c r="DA6" s="21"/>
-      <c r="DB6" s="21"/>
-      <c r="DC6" s="21"/>
-      <c r="DD6" s="21"/>
+      <c r="CE6" s="22"/>
+      <c r="CF6" s="22"/>
+      <c r="CG6" s="22"/>
+      <c r="CH6" s="22"/>
+      <c r="CI6" s="22"/>
+      <c r="CJ6" s="22"/>
+      <c r="CK6" s="22"/>
+      <c r="CL6" s="22"/>
+      <c r="CM6" s="22"/>
+      <c r="CN6" s="22"/>
+      <c r="CO6" s="22"/>
+      <c r="CP6" s="22"/>
+      <c r="CQ6" s="22"/>
+      <c r="CR6" s="22"/>
+      <c r="CS6" s="22"/>
+      <c r="CT6" s="22"/>
+      <c r="CU6" s="22"/>
+      <c r="CV6" s="22"/>
+      <c r="CW6" s="22"/>
+      <c r="CX6" s="22"/>
+      <c r="CY6" s="22"/>
+      <c r="CZ6" s="22"/>
+      <c r="DA6" s="22"/>
+      <c r="DB6" s="22"/>
+      <c r="DC6" s="22"/>
+      <c r="DD6" s="22"/>
       <c r="DE6" s="1"/>
       <c r="DF6" s="1"/>
       <c r="DG6" s="1"/>
@@ -1683,120 +1710,120 @@
       <c r="EF6" s="1"/>
     </row>
     <row r="7" spans="1:136" x14ac:dyDescent="0.45">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21"/>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="21"/>
-      <c r="AK7" s="21"/>
-      <c r="AL7" s="21"/>
-      <c r="AM7" s="21"/>
-      <c r="AN7" s="21"/>
-      <c r="AO7" s="21"/>
-      <c r="AP7" s="21"/>
-      <c r="AQ7" s="21"/>
-      <c r="AR7" s="21"/>
-      <c r="AS7" s="21"/>
-      <c r="AT7" s="21"/>
-      <c r="AU7" s="21"/>
-      <c r="AV7" s="21"/>
-      <c r="AW7" s="21"/>
-      <c r="AX7" s="21"/>
-      <c r="AY7" s="21"/>
-      <c r="AZ7" s="21"/>
-      <c r="BA7" s="21"/>
-      <c r="BB7" s="21"/>
-      <c r="BC7" s="21"/>
-      <c r="BD7" s="21"/>
-      <c r="BE7" s="21"/>
-      <c r="BF7" s="21"/>
-      <c r="BG7" s="21"/>
-      <c r="BH7" s="21"/>
-      <c r="BI7" s="21"/>
-      <c r="BJ7" s="21"/>
-      <c r="BK7" s="21"/>
-      <c r="BL7" s="21"/>
-      <c r="BM7" s="21"/>
-      <c r="BN7" s="21"/>
-      <c r="BO7" s="21"/>
-      <c r="BP7" s="21"/>
-      <c r="BQ7" s="21"/>
-      <c r="BR7" s="21"/>
-      <c r="BS7" s="21" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="22"/>
+      <c r="AL7" s="22"/>
+      <c r="AM7" s="22"/>
+      <c r="AN7" s="22"/>
+      <c r="AO7" s="22"/>
+      <c r="AP7" s="22"/>
+      <c r="AQ7" s="22"/>
+      <c r="AR7" s="22"/>
+      <c r="AS7" s="22"/>
+      <c r="AT7" s="22"/>
+      <c r="AU7" s="22"/>
+      <c r="AV7" s="22"/>
+      <c r="AW7" s="22"/>
+      <c r="AX7" s="22"/>
+      <c r="AY7" s="22"/>
+      <c r="AZ7" s="22"/>
+      <c r="BA7" s="22"/>
+      <c r="BB7" s="22"/>
+      <c r="BC7" s="22"/>
+      <c r="BD7" s="22"/>
+      <c r="BE7" s="22"/>
+      <c r="BF7" s="22"/>
+      <c r="BG7" s="22"/>
+      <c r="BH7" s="22"/>
+      <c r="BI7" s="22"/>
+      <c r="BJ7" s="22"/>
+      <c r="BK7" s="22"/>
+      <c r="BL7" s="22"/>
+      <c r="BM7" s="22"/>
+      <c r="BN7" s="22"/>
+      <c r="BO7" s="22"/>
+      <c r="BP7" s="22"/>
+      <c r="BQ7" s="22"/>
+      <c r="BR7" s="22"/>
+      <c r="BS7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="BT7" s="21"/>
-      <c r="BU7" s="21"/>
-      <c r="BV7" s="21" t="s">
+      <c r="BT7" s="22"/>
+      <c r="BU7" s="22"/>
+      <c r="BV7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="BW7" s="21"/>
-      <c r="BX7" s="21"/>
-      <c r="BY7" s="21"/>
-      <c r="BZ7" s="21"/>
-      <c r="CA7" s="21"/>
-      <c r="CB7" s="21" t="s">
+      <c r="BW7" s="22"/>
+      <c r="BX7" s="22"/>
+      <c r="BY7" s="22"/>
+      <c r="BZ7" s="22"/>
+      <c r="CA7" s="22"/>
+      <c r="CB7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="CC7" s="21"/>
-      <c r="CD7" s="21"/>
-      <c r="CE7" s="21"/>
-      <c r="CF7" s="21"/>
-      <c r="CG7" s="21"/>
-      <c r="CH7" s="21"/>
-      <c r="CI7" s="21"/>
-      <c r="CJ7" s="21"/>
-      <c r="CK7" s="21"/>
-      <c r="CL7" s="21"/>
-      <c r="CM7" s="21"/>
-      <c r="CN7" s="21"/>
-      <c r="CO7" s="21"/>
-      <c r="CP7" s="21"/>
-      <c r="CQ7" s="21"/>
-      <c r="CR7" s="21"/>
-      <c r="CS7" s="21"/>
-      <c r="CT7" s="21"/>
-      <c r="CU7" s="21"/>
-      <c r="CV7" s="21"/>
-      <c r="CW7" s="21"/>
-      <c r="CX7" s="21"/>
-      <c r="CY7" s="21"/>
-      <c r="CZ7" s="21"/>
-      <c r="DA7" s="21"/>
-      <c r="DB7" s="21"/>
-      <c r="DC7" s="21"/>
-      <c r="DD7" s="21"/>
+      <c r="CC7" s="22"/>
+      <c r="CD7" s="22"/>
+      <c r="CE7" s="22"/>
+      <c r="CF7" s="22"/>
+      <c r="CG7" s="22"/>
+      <c r="CH7" s="22"/>
+      <c r="CI7" s="22"/>
+      <c r="CJ7" s="22"/>
+      <c r="CK7" s="22"/>
+      <c r="CL7" s="22"/>
+      <c r="CM7" s="22"/>
+      <c r="CN7" s="22"/>
+      <c r="CO7" s="22"/>
+      <c r="CP7" s="22"/>
+      <c r="CQ7" s="22"/>
+      <c r="CR7" s="22"/>
+      <c r="CS7" s="22"/>
+      <c r="CT7" s="22"/>
+      <c r="CU7" s="22"/>
+      <c r="CV7" s="22"/>
+      <c r="CW7" s="22"/>
+      <c r="CX7" s="22"/>
+      <c r="CY7" s="22"/>
+      <c r="CZ7" s="22"/>
+      <c r="DA7" s="22"/>
+      <c r="DB7" s="22"/>
+      <c r="DC7" s="22"/>
+      <c r="DD7" s="22"/>
       <c r="DE7" s="1"/>
       <c r="DF7" s="1"/>
       <c r="DG7" s="1"/>
@@ -1833,10 +1860,10 @@
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
       <c r="I8" s="17" t="s">
         <v>16</v>
       </c>
@@ -1975,10 +2002,10 @@
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
       <c r="I9" s="17" t="s">
         <v>17</v>
       </c>
@@ -2117,10 +2144,10 @@
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
         <v>18</v>
       </c>
@@ -2261,10 +2288,10 @@
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="20"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
@@ -2296,39 +2323,37 @@
       <c r="AK11" s="17"/>
       <c r="AL11" s="17"/>
       <c r="AM11" s="17"/>
-      <c r="AN11" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO11" s="17"/>
-      <c r="AP11" s="17"/>
-      <c r="AQ11" s="17"/>
-      <c r="AR11" s="17"/>
-      <c r="AS11" s="17"/>
-      <c r="AT11" s="17"/>
-      <c r="AU11" s="17"/>
-      <c r="AV11" s="17"/>
-      <c r="AW11" s="17"/>
-      <c r="AX11" s="17"/>
-      <c r="AY11" s="17"/>
-      <c r="AZ11" s="17"/>
-      <c r="BA11" s="17"/>
-      <c r="BB11" s="17"/>
-      <c r="BC11" s="17"/>
-      <c r="BD11" s="17"/>
-      <c r="BE11" s="17"/>
-      <c r="BF11" s="17"/>
-      <c r="BG11" s="17"/>
-      <c r="BH11" s="17"/>
-      <c r="BI11" s="17"/>
-      <c r="BJ11" s="17"/>
-      <c r="BK11" s="17"/>
-      <c r="BL11" s="17"/>
-      <c r="BM11" s="17"/>
-      <c r="BN11" s="17"/>
-      <c r="BO11" s="17"/>
-      <c r="BP11" s="17"/>
-      <c r="BQ11" s="17"/>
-      <c r="BR11" s="17"/>
+      <c r="AN11" s="23"/>
+      <c r="AO11" s="24"/>
+      <c r="AP11" s="24"/>
+      <c r="AQ11" s="24"/>
+      <c r="AR11" s="24"/>
+      <c r="AS11" s="24"/>
+      <c r="AT11" s="24"/>
+      <c r="AU11" s="24"/>
+      <c r="AV11" s="24"/>
+      <c r="AW11" s="24"/>
+      <c r="AX11" s="24"/>
+      <c r="AY11" s="24"/>
+      <c r="AZ11" s="24"/>
+      <c r="BA11" s="24"/>
+      <c r="BB11" s="24"/>
+      <c r="BC11" s="24"/>
+      <c r="BD11" s="24"/>
+      <c r="BE11" s="24"/>
+      <c r="BF11" s="24"/>
+      <c r="BG11" s="24"/>
+      <c r="BH11" s="24"/>
+      <c r="BI11" s="24"/>
+      <c r="BJ11" s="24"/>
+      <c r="BK11" s="24"/>
+      <c r="BL11" s="24"/>
+      <c r="BM11" s="24"/>
+      <c r="BN11" s="24"/>
+      <c r="BO11" s="24"/>
+      <c r="BP11" s="24"/>
+      <c r="BQ11" s="24"/>
+      <c r="BR11" s="25"/>
       <c r="BS11" s="17"/>
       <c r="BT11" s="17"/>
       <c r="BU11" s="17"/>
@@ -2403,12 +2428,12 @@
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
@@ -2545,12 +2570,12 @@
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="20"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
@@ -2583,7 +2608,7 @@
       <c r="AL13" s="17"/>
       <c r="AM13" s="17"/>
       <c r="AN13" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO13" s="17"/>
       <c r="AP13" s="17"/>
@@ -2689,12 +2714,12 @@
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
@@ -2727,7 +2752,7 @@
       <c r="AL14" s="17"/>
       <c r="AM14" s="17"/>
       <c r="AN14" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO14" s="17"/>
       <c r="AP14" s="17"/>
@@ -2833,14 +2858,14 @@
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="20"/>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="17" t="s">
-        <v>27</v>
       </c>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
@@ -2873,7 +2898,7 @@
       <c r="AL15" s="17"/>
       <c r="AM15" s="17"/>
       <c r="AN15" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO15" s="17"/>
       <c r="AP15" s="17"/>
@@ -2979,10 +3004,10 @@
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
@@ -3015,7 +3040,7 @@
       <c r="AL16" s="17"/>
       <c r="AM16" s="17"/>
       <c r="AN16" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO16" s="17"/>
       <c r="AP16" s="17"/>
@@ -3058,7 +3083,9 @@
       <c r="CA16" s="17"/>
       <c r="CB16" s="17"/>
       <c r="CC16" s="17"/>
-      <c r="CD16" s="17"/>
+      <c r="CD16" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="CE16" s="17"/>
       <c r="CF16" s="17"/>
       <c r="CG16" s="17"/>
@@ -3119,10 +3146,10 @@
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="20"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
@@ -3257,10 +3284,10 @@
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
@@ -3395,10 +3422,10 @@
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="20"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
@@ -3533,10 +3560,10 @@
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
       <c r="D20" s="20"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
@@ -3671,10 +3698,10 @@
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="20"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
@@ -3809,10 +3836,10 @@
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="20"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
@@ -3947,10 +3974,10 @@
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
       <c r="D23" s="20"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
@@ -32706,7 +32733,6 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="I10:AM10"/>
-    <mergeCell ref="AN10:BR10"/>
     <mergeCell ref="BS10:BU10"/>
     <mergeCell ref="BV10:CA10"/>
     <mergeCell ref="CB10:CC10"/>
@@ -32714,13 +32740,14 @@
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="I11:AM11"/>
-    <mergeCell ref="AN11:BR11"/>
+    <mergeCell ref="AN10:BR10"/>
     <mergeCell ref="BS11:BU11"/>
     <mergeCell ref="BV11:CA11"/>
     <mergeCell ref="CB11:CC11"/>
     <mergeCell ref="CD11:DD11"/>
     <mergeCell ref="CB12:CC12"/>
     <mergeCell ref="CD12:DD12"/>
+    <mergeCell ref="AN11:BR11"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="E13:H13"/>
     <mergeCell ref="I13:AM13"/>
@@ -32740,7 +32767,6 @@
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="I15:AM15"/>
-    <mergeCell ref="AN15:BR15"/>
     <mergeCell ref="BS15:BU15"/>
     <mergeCell ref="BV15:CA15"/>
     <mergeCell ref="CB15:CC15"/>
@@ -32764,9 +32790,10 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="I16:AM16"/>
-    <mergeCell ref="AN16:BR16"/>
+    <mergeCell ref="AN15:BR15"/>
     <mergeCell ref="BS16:BU16"/>
     <mergeCell ref="BV16:CA16"/>
+    <mergeCell ref="AN16:BR16"/>
     <mergeCell ref="CB18:CC18"/>
     <mergeCell ref="CD18:DD18"/>
     <mergeCell ref="A19:D19"/>
@@ -33470,15 +33497,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F3BD9A264D891E42A87CAED8E149BEE6" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ca7c401e516c40050d0899be8bcf9780">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13" xmlns:ns3="675b6bc6-fb4a-4724-a080-4fd9de868aa1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66b658899a6e9f32da36e2c4c1c4c8de" ns2:_="" ns3:_="">
     <xsd:import namespace="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
@@ -33673,15 +33691,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC83A6FC-61D6-4923-BB64-2B825E6F431E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E7B35E1-A2F4-4226-9A33-4926D74D9F7D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33698,4 +33717,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC83A6FC-61D6-4923-BB64-2B825E6F431E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/設計書_打刻侍/50_単体テスト/仕様書_(C000)共通ヘッダー.xlsx
+++ b/設計書_打刻侍/50_単体テスト/仕様書_(C000)共通ヘッダー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubSample\dakokusamurai-git-repository\設計書_打刻侍\50_単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4398429-3B98-464A-958E-F9F7944B9528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4A8735-7BCB-436F-8C0A-0F882C07603C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{745FC034-C374-47E9-8C14-3AA6EA33CBC4}"/>
   </bookViews>
@@ -142,10 +142,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>◆セッションを持たない場合</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>URLを直接打ち込む</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -153,16 +149,6 @@
     <t>index.jspに戻る</t>
     <rPh sb="10" eb="11">
       <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>◆セッション情報をもつ場合</t>
-    <rPh sb="6" eb="8">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -225,10 +211,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>セッション情報を破棄　</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>確認方法：もう一度直接URLを入力し共通ヘッダーを呼び出す。Index.jspに戻るのか</t>
     <rPh sb="0" eb="2">
       <t>カクニン</t>
@@ -259,12 +241,54 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>◆セッションに利用者の情報を持たない場合</t>
+    <rPh sb="7" eb="10">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セッションに存在する利用者情報を破棄する</t>
+    <rPh sb="6" eb="8">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>◆セッションに利用者の情報をもつ場合　</t>
+    <rPh sb="7" eb="10">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +325,20 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -434,7 +472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -501,9 +539,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -512,6 +547,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -849,13 +893,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0B7A4F-762B-45BB-B437-FD784306B29C}">
   <dimension ref="A1:EF231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CD16" sqref="CD16:DD16"/>
+    <sheetView tabSelected="1" topLeftCell="G3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN13" sqref="AN13:BR13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:136" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:136" ht="22.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -995,7 +1039,7 @@
       <c r="EE1" s="1"/>
       <c r="EF1" s="1"/>
     </row>
-    <row r="2" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:136">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -1137,7 +1181,7 @@
       <c r="EE2" s="1"/>
       <c r="EF2" s="1"/>
     </row>
-    <row r="3" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:136">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
@@ -1279,7 +1323,7 @@
       <c r="EE3" s="1"/>
       <c r="EF3" s="1"/>
     </row>
-    <row r="4" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:136">
       <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
@@ -1421,7 +1465,7 @@
       <c r="EE4" s="1"/>
       <c r="EF4" s="1"/>
     </row>
-    <row r="5" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:136">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1559,127 +1603,127 @@
       <c r="EE5" s="1"/>
       <c r="EF5" s="1"/>
     </row>
-    <row r="6" spans="1:136" x14ac:dyDescent="0.45">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:136">
+      <c r="A6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22" t="s">
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="22" t="s">
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="AO6" s="22"/>
-      <c r="AP6" s="22"/>
-      <c r="AQ6" s="22"/>
-      <c r="AR6" s="22"/>
-      <c r="AS6" s="22"/>
-      <c r="AT6" s="22"/>
-      <c r="AU6" s="22"/>
-      <c r="AV6" s="22"/>
-      <c r="AW6" s="22"/>
-      <c r="AX6" s="22"/>
-      <c r="AY6" s="22"/>
-      <c r="AZ6" s="22"/>
-      <c r="BA6" s="22"/>
-      <c r="BB6" s="22"/>
-      <c r="BC6" s="22"/>
-      <c r="BD6" s="22"/>
-      <c r="BE6" s="22"/>
-      <c r="BF6" s="22"/>
-      <c r="BG6" s="22"/>
-      <c r="BH6" s="22"/>
-      <c r="BI6" s="22"/>
-      <c r="BJ6" s="22"/>
-      <c r="BK6" s="22"/>
-      <c r="BL6" s="22"/>
-      <c r="BM6" s="22"/>
-      <c r="BN6" s="22"/>
-      <c r="BO6" s="22"/>
-      <c r="BP6" s="22"/>
-      <c r="BQ6" s="22"/>
-      <c r="BR6" s="22"/>
-      <c r="BS6" s="22" t="s">
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="25"/>
+      <c r="AR6" s="25"/>
+      <c r="AS6" s="25"/>
+      <c r="AT6" s="25"/>
+      <c r="AU6" s="25"/>
+      <c r="AV6" s="25"/>
+      <c r="AW6" s="25"/>
+      <c r="AX6" s="25"/>
+      <c r="AY6" s="25"/>
+      <c r="AZ6" s="25"/>
+      <c r="BA6" s="25"/>
+      <c r="BB6" s="25"/>
+      <c r="BC6" s="25"/>
+      <c r="BD6" s="25"/>
+      <c r="BE6" s="25"/>
+      <c r="BF6" s="25"/>
+      <c r="BG6" s="25"/>
+      <c r="BH6" s="25"/>
+      <c r="BI6" s="25"/>
+      <c r="BJ6" s="25"/>
+      <c r="BK6" s="25"/>
+      <c r="BL6" s="25"/>
+      <c r="BM6" s="25"/>
+      <c r="BN6" s="25"/>
+      <c r="BO6" s="25"/>
+      <c r="BP6" s="25"/>
+      <c r="BQ6" s="25"/>
+      <c r="BR6" s="25"/>
+      <c r="BS6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="BT6" s="22"/>
-      <c r="BU6" s="22"/>
-      <c r="BV6" s="22"/>
-      <c r="BW6" s="22"/>
-      <c r="BX6" s="22"/>
-      <c r="BY6" s="22"/>
-      <c r="BZ6" s="22"/>
-      <c r="CA6" s="22"/>
-      <c r="CB6" s="22"/>
-      <c r="CC6" s="22"/>
-      <c r="CD6" s="22" t="s">
+      <c r="BT6" s="25"/>
+      <c r="BU6" s="25"/>
+      <c r="BV6" s="25"/>
+      <c r="BW6" s="25"/>
+      <c r="BX6" s="25"/>
+      <c r="BY6" s="25"/>
+      <c r="BZ6" s="25"/>
+      <c r="CA6" s="25"/>
+      <c r="CB6" s="25"/>
+      <c r="CC6" s="25"/>
+      <c r="CD6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="CE6" s="22"/>
-      <c r="CF6" s="22"/>
-      <c r="CG6" s="22"/>
-      <c r="CH6" s="22"/>
-      <c r="CI6" s="22"/>
-      <c r="CJ6" s="22"/>
-      <c r="CK6" s="22"/>
-      <c r="CL6" s="22"/>
-      <c r="CM6" s="22"/>
-      <c r="CN6" s="22"/>
-      <c r="CO6" s="22"/>
-      <c r="CP6" s="22"/>
-      <c r="CQ6" s="22"/>
-      <c r="CR6" s="22"/>
-      <c r="CS6" s="22"/>
-      <c r="CT6" s="22"/>
-      <c r="CU6" s="22"/>
-      <c r="CV6" s="22"/>
-      <c r="CW6" s="22"/>
-      <c r="CX6" s="22"/>
-      <c r="CY6" s="22"/>
-      <c r="CZ6" s="22"/>
-      <c r="DA6" s="22"/>
-      <c r="DB6" s="22"/>
-      <c r="DC6" s="22"/>
-      <c r="DD6" s="22"/>
+      <c r="CE6" s="25"/>
+      <c r="CF6" s="25"/>
+      <c r="CG6" s="25"/>
+      <c r="CH6" s="25"/>
+      <c r="CI6" s="25"/>
+      <c r="CJ6" s="25"/>
+      <c r="CK6" s="25"/>
+      <c r="CL6" s="25"/>
+      <c r="CM6" s="25"/>
+      <c r="CN6" s="25"/>
+      <c r="CO6" s="25"/>
+      <c r="CP6" s="25"/>
+      <c r="CQ6" s="25"/>
+      <c r="CR6" s="25"/>
+      <c r="CS6" s="25"/>
+      <c r="CT6" s="25"/>
+      <c r="CU6" s="25"/>
+      <c r="CV6" s="25"/>
+      <c r="CW6" s="25"/>
+      <c r="CX6" s="25"/>
+      <c r="CY6" s="25"/>
+      <c r="CZ6" s="25"/>
+      <c r="DA6" s="25"/>
+      <c r="DB6" s="25"/>
+      <c r="DC6" s="25"/>
+      <c r="DD6" s="25"/>
       <c r="DE6" s="1"/>
       <c r="DF6" s="1"/>
       <c r="DG6" s="1"/>
@@ -1709,121 +1753,121 @@
       <c r="EE6" s="1"/>
       <c r="EF6" s="1"/>
     </row>
-    <row r="7" spans="1:136" x14ac:dyDescent="0.45">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
-      <c r="AG7" s="22"/>
-      <c r="AH7" s="22"/>
-      <c r="AI7" s="22"/>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="22"/>
-      <c r="AL7" s="22"/>
-      <c r="AM7" s="22"/>
-      <c r="AN7" s="22"/>
-      <c r="AO7" s="22"/>
-      <c r="AP7" s="22"/>
-      <c r="AQ7" s="22"/>
-      <c r="AR7" s="22"/>
-      <c r="AS7" s="22"/>
-      <c r="AT7" s="22"/>
-      <c r="AU7" s="22"/>
-      <c r="AV7" s="22"/>
-      <c r="AW7" s="22"/>
-      <c r="AX7" s="22"/>
-      <c r="AY7" s="22"/>
-      <c r="AZ7" s="22"/>
-      <c r="BA7" s="22"/>
-      <c r="BB7" s="22"/>
-      <c r="BC7" s="22"/>
-      <c r="BD7" s="22"/>
-      <c r="BE7" s="22"/>
-      <c r="BF7" s="22"/>
-      <c r="BG7" s="22"/>
-      <c r="BH7" s="22"/>
-      <c r="BI7" s="22"/>
-      <c r="BJ7" s="22"/>
-      <c r="BK7" s="22"/>
-      <c r="BL7" s="22"/>
-      <c r="BM7" s="22"/>
-      <c r="BN7" s="22"/>
-      <c r="BO7" s="22"/>
-      <c r="BP7" s="22"/>
-      <c r="BQ7" s="22"/>
-      <c r="BR7" s="22"/>
-      <c r="BS7" s="22" t="s">
+    <row r="7" spans="1:136">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="25"/>
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="25"/>
+      <c r="AM7" s="25"/>
+      <c r="AN7" s="25"/>
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="25"/>
+      <c r="AQ7" s="25"/>
+      <c r="AR7" s="25"/>
+      <c r="AS7" s="25"/>
+      <c r="AT7" s="25"/>
+      <c r="AU7" s="25"/>
+      <c r="AV7" s="25"/>
+      <c r="AW7" s="25"/>
+      <c r="AX7" s="25"/>
+      <c r="AY7" s="25"/>
+      <c r="AZ7" s="25"/>
+      <c r="BA7" s="25"/>
+      <c r="BB7" s="25"/>
+      <c r="BC7" s="25"/>
+      <c r="BD7" s="25"/>
+      <c r="BE7" s="25"/>
+      <c r="BF7" s="25"/>
+      <c r="BG7" s="25"/>
+      <c r="BH7" s="25"/>
+      <c r="BI7" s="25"/>
+      <c r="BJ7" s="25"/>
+      <c r="BK7" s="25"/>
+      <c r="BL7" s="25"/>
+      <c r="BM7" s="25"/>
+      <c r="BN7" s="25"/>
+      <c r="BO7" s="25"/>
+      <c r="BP7" s="25"/>
+      <c r="BQ7" s="25"/>
+      <c r="BR7" s="25"/>
+      <c r="BS7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="BT7" s="22"/>
-      <c r="BU7" s="22"/>
-      <c r="BV7" s="22" t="s">
+      <c r="BT7" s="25"/>
+      <c r="BU7" s="25"/>
+      <c r="BV7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="BW7" s="22"/>
-      <c r="BX7" s="22"/>
-      <c r="BY7" s="22"/>
-      <c r="BZ7" s="22"/>
-      <c r="CA7" s="22"/>
-      <c r="CB7" s="22" t="s">
+      <c r="BW7" s="25"/>
+      <c r="BX7" s="25"/>
+      <c r="BY7" s="25"/>
+      <c r="BZ7" s="25"/>
+      <c r="CA7" s="25"/>
+      <c r="CB7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="CC7" s="22"/>
-      <c r="CD7" s="22"/>
-      <c r="CE7" s="22"/>
-      <c r="CF7" s="22"/>
-      <c r="CG7" s="22"/>
-      <c r="CH7" s="22"/>
-      <c r="CI7" s="22"/>
-      <c r="CJ7" s="22"/>
-      <c r="CK7" s="22"/>
-      <c r="CL7" s="22"/>
-      <c r="CM7" s="22"/>
-      <c r="CN7" s="22"/>
-      <c r="CO7" s="22"/>
-      <c r="CP7" s="22"/>
-      <c r="CQ7" s="22"/>
-      <c r="CR7" s="22"/>
-      <c r="CS7" s="22"/>
-      <c r="CT7" s="22"/>
-      <c r="CU7" s="22"/>
-      <c r="CV7" s="22"/>
-      <c r="CW7" s="22"/>
-      <c r="CX7" s="22"/>
-      <c r="CY7" s="22"/>
-      <c r="CZ7" s="22"/>
-      <c r="DA7" s="22"/>
-      <c r="DB7" s="22"/>
-      <c r="DC7" s="22"/>
-      <c r="DD7" s="22"/>
+      <c r="CC7" s="25"/>
+      <c r="CD7" s="25"/>
+      <c r="CE7" s="25"/>
+      <c r="CF7" s="25"/>
+      <c r="CG7" s="25"/>
+      <c r="CH7" s="25"/>
+      <c r="CI7" s="25"/>
+      <c r="CJ7" s="25"/>
+      <c r="CK7" s="25"/>
+      <c r="CL7" s="25"/>
+      <c r="CM7" s="25"/>
+      <c r="CN7" s="25"/>
+      <c r="CO7" s="25"/>
+      <c r="CP7" s="25"/>
+      <c r="CQ7" s="25"/>
+      <c r="CR7" s="25"/>
+      <c r="CS7" s="25"/>
+      <c r="CT7" s="25"/>
+      <c r="CU7" s="25"/>
+      <c r="CV7" s="25"/>
+      <c r="CW7" s="25"/>
+      <c r="CX7" s="25"/>
+      <c r="CY7" s="25"/>
+      <c r="CZ7" s="25"/>
+      <c r="DA7" s="25"/>
+      <c r="DB7" s="25"/>
+      <c r="DC7" s="25"/>
+      <c r="DD7" s="25"/>
       <c r="DE7" s="1"/>
       <c r="DF7" s="1"/>
       <c r="DG7" s="1"/>
@@ -1853,7 +1897,7 @@
       <c r="EE7" s="1"/>
       <c r="EF7" s="1"/>
     </row>
-    <row r="8" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:136" s="16" customFormat="1">
       <c r="A8" s="18">
         <v>1</v>
       </c>
@@ -1995,7 +2039,7 @@
       <c r="EE8" s="15"/>
       <c r="EF8" s="15"/>
     </row>
-    <row r="9" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:136" s="16" customFormat="1">
       <c r="A9" s="18">
         <v>2</v>
       </c>
@@ -2007,7 +2051,7 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="17" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
@@ -2137,7 +2181,7 @@
       <c r="EE9" s="15"/>
       <c r="EF9" s="15"/>
     </row>
-    <row r="10" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:136" s="16" customFormat="1">
       <c r="A10" s="18">
         <v>3</v>
       </c>
@@ -2149,7 +2193,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -2182,7 +2226,7 @@
       <c r="AL10" s="17"/>
       <c r="AM10" s="17"/>
       <c r="AN10" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO10" s="17"/>
       <c r="AP10" s="17"/>
@@ -2281,7 +2325,7 @@
       <c r="EE10" s="15"/>
       <c r="EF10" s="15"/>
     </row>
-    <row r="11" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:136" s="16" customFormat="1">
       <c r="A11" s="18">
         <v>4</v>
       </c>
@@ -2323,37 +2367,37 @@
       <c r="AK11" s="17"/>
       <c r="AL11" s="17"/>
       <c r="AM11" s="17"/>
-      <c r="AN11" s="23"/>
-      <c r="AO11" s="24"/>
-      <c r="AP11" s="24"/>
-      <c r="AQ11" s="24"/>
-      <c r="AR11" s="24"/>
-      <c r="AS11" s="24"/>
-      <c r="AT11" s="24"/>
-      <c r="AU11" s="24"/>
-      <c r="AV11" s="24"/>
-      <c r="AW11" s="24"/>
-      <c r="AX11" s="24"/>
-      <c r="AY11" s="24"/>
-      <c r="AZ11" s="24"/>
-      <c r="BA11" s="24"/>
-      <c r="BB11" s="24"/>
-      <c r="BC11" s="24"/>
-      <c r="BD11" s="24"/>
-      <c r="BE11" s="24"/>
-      <c r="BF11" s="24"/>
-      <c r="BG11" s="24"/>
-      <c r="BH11" s="24"/>
-      <c r="BI11" s="24"/>
-      <c r="BJ11" s="24"/>
-      <c r="BK11" s="24"/>
-      <c r="BL11" s="24"/>
-      <c r="BM11" s="24"/>
-      <c r="BN11" s="24"/>
-      <c r="BO11" s="24"/>
-      <c r="BP11" s="24"/>
-      <c r="BQ11" s="24"/>
-      <c r="BR11" s="25"/>
+      <c r="AN11" s="22"/>
+      <c r="AO11" s="23"/>
+      <c r="AP11" s="23"/>
+      <c r="AQ11" s="23"/>
+      <c r="AR11" s="23"/>
+      <c r="AS11" s="23"/>
+      <c r="AT11" s="23"/>
+      <c r="AU11" s="23"/>
+      <c r="AV11" s="23"/>
+      <c r="AW11" s="23"/>
+      <c r="AX11" s="23"/>
+      <c r="AY11" s="23"/>
+      <c r="AZ11" s="23"/>
+      <c r="BA11" s="23"/>
+      <c r="BB11" s="23"/>
+      <c r="BC11" s="23"/>
+      <c r="BD11" s="23"/>
+      <c r="BE11" s="23"/>
+      <c r="BF11" s="23"/>
+      <c r="BG11" s="23"/>
+      <c r="BH11" s="23"/>
+      <c r="BI11" s="23"/>
+      <c r="BJ11" s="23"/>
+      <c r="BK11" s="23"/>
+      <c r="BL11" s="23"/>
+      <c r="BM11" s="23"/>
+      <c r="BN11" s="23"/>
+      <c r="BO11" s="23"/>
+      <c r="BP11" s="23"/>
+      <c r="BQ11" s="23"/>
+      <c r="BR11" s="24"/>
       <c r="BS11" s="17"/>
       <c r="BT11" s="17"/>
       <c r="BU11" s="17"/>
@@ -2421,7 +2465,7 @@
       <c r="EE11" s="15"/>
       <c r="EF11" s="15"/>
     </row>
-    <row r="12" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:136" s="16" customFormat="1">
       <c r="A12" s="18">
         <v>5</v>
       </c>
@@ -2432,39 +2476,39 @@
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="17" t="s">
-        <v>20</v>
+      <c r="I12" s="26" t="s">
+        <v>29</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="26"/>
+      <c r="AM12" s="26"/>
       <c r="AN12" s="17"/>
       <c r="AO12" s="17"/>
       <c r="AP12" s="17"/>
@@ -2563,7 +2607,7 @@
       <c r="EE12" s="15"/>
       <c r="EF12" s="15"/>
     </row>
-    <row r="13" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:136" s="16" customFormat="1">
       <c r="A13" s="18">
         <v>6</v>
       </c>
@@ -2575,7 +2619,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
@@ -2608,7 +2652,7 @@
       <c r="AL13" s="17"/>
       <c r="AM13" s="17"/>
       <c r="AN13" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO13" s="17"/>
       <c r="AP13" s="17"/>
@@ -2707,7 +2751,7 @@
       <c r="EE13" s="15"/>
       <c r="EF13" s="15"/>
     </row>
-    <row r="14" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:136" s="16" customFormat="1">
       <c r="A14" s="18">
         <v>7</v>
       </c>
@@ -2719,7 +2763,7 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
@@ -2752,7 +2796,7 @@
       <c r="AL14" s="17"/>
       <c r="AM14" s="17"/>
       <c r="AN14" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO14" s="17"/>
       <c r="AP14" s="17"/>
@@ -2851,7 +2895,7 @@
       <c r="EE14" s="15"/>
       <c r="EF14" s="15"/>
     </row>
-    <row r="15" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:136" s="16" customFormat="1">
       <c r="A15" s="18">
         <v>8</v>
       </c>
@@ -2859,13 +2903,13 @@
       <c r="C15" s="19"/>
       <c r="D15" s="20"/>
       <c r="E15" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
@@ -2898,7 +2942,7 @@
       <c r="AL15" s="17"/>
       <c r="AM15" s="17"/>
       <c r="AN15" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO15" s="17"/>
       <c r="AP15" s="17"/>
@@ -2997,7 +3041,7 @@
       <c r="EE15" s="15"/>
       <c r="EF15" s="15"/>
     </row>
-    <row r="16" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:136" s="16" customFormat="1">
       <c r="A16" s="18">
         <v>9</v>
       </c>
@@ -3039,39 +3083,39 @@
       <c r="AK16" s="17"/>
       <c r="AL16" s="17"/>
       <c r="AM16" s="17"/>
-      <c r="AN16" s="17" t="s">
+      <c r="AN16" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AO16" s="17"/>
-      <c r="AP16" s="17"/>
-      <c r="AQ16" s="17"/>
-      <c r="AR16" s="17"/>
-      <c r="AS16" s="17"/>
-      <c r="AT16" s="17"/>
-      <c r="AU16" s="17"/>
-      <c r="AV16" s="17"/>
-      <c r="AW16" s="17"/>
-      <c r="AX16" s="17"/>
-      <c r="AY16" s="17"/>
-      <c r="AZ16" s="17"/>
-      <c r="BA16" s="17"/>
-      <c r="BB16" s="17"/>
-      <c r="BC16" s="17"/>
-      <c r="BD16" s="17"/>
-      <c r="BE16" s="17"/>
-      <c r="BF16" s="17"/>
-      <c r="BG16" s="17"/>
-      <c r="BH16" s="17"/>
-      <c r="BI16" s="17"/>
-      <c r="BJ16" s="17"/>
-      <c r="BK16" s="17"/>
-      <c r="BL16" s="17"/>
-      <c r="BM16" s="17"/>
-      <c r="BN16" s="17"/>
-      <c r="BO16" s="17"/>
-      <c r="BP16" s="17"/>
-      <c r="BQ16" s="17"/>
-      <c r="BR16" s="17"/>
+      <c r="AO16" s="27"/>
+      <c r="AP16" s="27"/>
+      <c r="AQ16" s="27"/>
+      <c r="AR16" s="27"/>
+      <c r="AS16" s="27"/>
+      <c r="AT16" s="27"/>
+      <c r="AU16" s="27"/>
+      <c r="AV16" s="27"/>
+      <c r="AW16" s="27"/>
+      <c r="AX16" s="27"/>
+      <c r="AY16" s="27"/>
+      <c r="AZ16" s="27"/>
+      <c r="BA16" s="27"/>
+      <c r="BB16" s="27"/>
+      <c r="BC16" s="27"/>
+      <c r="BD16" s="27"/>
+      <c r="BE16" s="27"/>
+      <c r="BF16" s="27"/>
+      <c r="BG16" s="27"/>
+      <c r="BH16" s="27"/>
+      <c r="BI16" s="27"/>
+      <c r="BJ16" s="27"/>
+      <c r="BK16" s="27"/>
+      <c r="BL16" s="27"/>
+      <c r="BM16" s="27"/>
+      <c r="BN16" s="27"/>
+      <c r="BO16" s="27"/>
+      <c r="BP16" s="27"/>
+      <c r="BQ16" s="27"/>
+      <c r="BR16" s="27"/>
       <c r="BS16" s="17"/>
       <c r="BT16" s="17"/>
       <c r="BU16" s="17"/>
@@ -3084,7 +3128,7 @@
       <c r="CB16" s="17"/>
       <c r="CC16" s="17"/>
       <c r="CD16" s="17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="CE16" s="17"/>
       <c r="CF16" s="17"/>
@@ -3141,7 +3185,7 @@
       <c r="EE16" s="15"/>
       <c r="EF16" s="15"/>
     </row>
-    <row r="17" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:136" s="16" customFormat="1">
       <c r="A17" s="18"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -3279,7 +3323,7 @@
       <c r="EE17" s="15"/>
       <c r="EF17" s="15"/>
     </row>
-    <row r="18" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:136" s="16" customFormat="1">
       <c r="A18" s="18"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -3417,7 +3461,7 @@
       <c r="EE18" s="15"/>
       <c r="EF18" s="15"/>
     </row>
-    <row r="19" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:136" s="16" customFormat="1">
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -3555,7 +3599,7 @@
       <c r="EE19" s="15"/>
       <c r="EF19" s="15"/>
     </row>
-    <row r="20" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:136" s="16" customFormat="1">
       <c r="A20" s="18"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -3693,7 +3737,7 @@
       <c r="EE20" s="15"/>
       <c r="EF20" s="15"/>
     </row>
-    <row r="21" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:136" s="16" customFormat="1">
       <c r="A21" s="18"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -3831,7 +3875,7 @@
       <c r="EE21" s="15"/>
       <c r="EF21" s="15"/>
     </row>
-    <row r="22" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:136" s="16" customFormat="1">
       <c r="A22" s="18"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -3969,7 +4013,7 @@
       <c r="EE22" s="15"/>
       <c r="EF22" s="15"/>
     </row>
-    <row r="23" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:136" s="16" customFormat="1">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -4107,7 +4151,7 @@
       <c r="EE23" s="15"/>
       <c r="EF23" s="15"/>
     </row>
-    <row r="24" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:136" s="16" customFormat="1">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -4245,7 +4289,7 @@
       <c r="EE24" s="15"/>
       <c r="EF24" s="15"/>
     </row>
-    <row r="25" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:136" s="16" customFormat="1">
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -4383,7 +4427,7 @@
       <c r="EE25" s="15"/>
       <c r="EF25" s="15"/>
     </row>
-    <row r="26" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:136" s="16" customFormat="1">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -4521,7 +4565,7 @@
       <c r="EE26" s="15"/>
       <c r="EF26" s="15"/>
     </row>
-    <row r="27" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:136" s="16" customFormat="1">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -4659,7 +4703,7 @@
       <c r="EE27" s="15"/>
       <c r="EF27" s="15"/>
     </row>
-    <row r="28" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:136" s="16" customFormat="1">
       <c r="A28" s="18"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -4797,7 +4841,7 @@
       <c r="EE28" s="15"/>
       <c r="EF28" s="15"/>
     </row>
-    <row r="29" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:136" s="16" customFormat="1">
       <c r="A29" s="18"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -4935,7 +4979,7 @@
       <c r="EE29" s="15"/>
       <c r="EF29" s="15"/>
     </row>
-    <row r="30" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:136" s="16" customFormat="1">
       <c r="A30" s="18"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -5073,7 +5117,7 @@
       <c r="EE30" s="15"/>
       <c r="EF30" s="15"/>
     </row>
-    <row r="31" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:136" s="16" customFormat="1">
       <c r="A31" s="18"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -5211,7 +5255,7 @@
       <c r="EE31" s="15"/>
       <c r="EF31" s="15"/>
     </row>
-    <row r="32" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:136" s="16" customFormat="1">
       <c r="A32" s="18"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -5349,7 +5393,7 @@
       <c r="EE32" s="15"/>
       <c r="EF32" s="15"/>
     </row>
-    <row r="33" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:136" s="16" customFormat="1">
       <c r="A33" s="18"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -5487,7 +5531,7 @@
       <c r="EE33" s="15"/>
       <c r="EF33" s="15"/>
     </row>
-    <row r="34" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:136" s="16" customFormat="1">
       <c r="A34" s="18"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -5625,7 +5669,7 @@
       <c r="EE34" s="15"/>
       <c r="EF34" s="15"/>
     </row>
-    <row r="35" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:136" s="16" customFormat="1">
       <c r="A35" s="18"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -5763,7 +5807,7 @@
       <c r="EE35" s="15"/>
       <c r="EF35" s="15"/>
     </row>
-    <row r="36" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:136" s="16" customFormat="1">
       <c r="A36" s="18"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -5901,7 +5945,7 @@
       <c r="EE36" s="15"/>
       <c r="EF36" s="15"/>
     </row>
-    <row r="37" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:136" s="16" customFormat="1">
       <c r="A37" s="18"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -6039,7 +6083,7 @@
       <c r="EE37" s="15"/>
       <c r="EF37" s="15"/>
     </row>
-    <row r="38" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:136" s="16" customFormat="1">
       <c r="A38" s="18"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -6177,7 +6221,7 @@
       <c r="EE38" s="15"/>
       <c r="EF38" s="15"/>
     </row>
-    <row r="39" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:136" s="16" customFormat="1">
       <c r="A39" s="18"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -6315,7 +6359,7 @@
       <c r="EE39" s="15"/>
       <c r="EF39" s="15"/>
     </row>
-    <row r="40" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:136" s="16" customFormat="1">
       <c r="A40" s="18"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -6453,7 +6497,7 @@
       <c r="EE40" s="15"/>
       <c r="EF40" s="15"/>
     </row>
-    <row r="41" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:136" s="16" customFormat="1">
       <c r="A41" s="18"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -6591,7 +6635,7 @@
       <c r="EE41" s="15"/>
       <c r="EF41" s="15"/>
     </row>
-    <row r="42" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:136" s="16" customFormat="1">
       <c r="A42" s="18"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -6729,7 +6773,7 @@
       <c r="EE42" s="15"/>
       <c r="EF42" s="15"/>
     </row>
-    <row r="43" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:136" s="16" customFormat="1">
       <c r="A43" s="18"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -6867,7 +6911,7 @@
       <c r="EE43" s="15"/>
       <c r="EF43" s="15"/>
     </row>
-    <row r="44" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:136" s="16" customFormat="1">
       <c r="A44" s="18"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -7005,7 +7049,7 @@
       <c r="EE44" s="15"/>
       <c r="EF44" s="15"/>
     </row>
-    <row r="45" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:136" s="16" customFormat="1">
       <c r="A45" s="18"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -7143,7 +7187,7 @@
       <c r="EE45" s="15"/>
       <c r="EF45" s="15"/>
     </row>
-    <row r="46" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:136" s="16" customFormat="1">
       <c r="A46" s="18"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -7281,7 +7325,7 @@
       <c r="EE46" s="15"/>
       <c r="EF46" s="15"/>
     </row>
-    <row r="47" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:136" s="16" customFormat="1">
       <c r="A47" s="18"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -7419,7 +7463,7 @@
       <c r="EE47" s="15"/>
       <c r="EF47" s="15"/>
     </row>
-    <row r="48" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:136" s="16" customFormat="1">
       <c r="A48" s="18"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -7557,7 +7601,7 @@
       <c r="EE48" s="15"/>
       <c r="EF48" s="15"/>
     </row>
-    <row r="49" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:136" s="16" customFormat="1">
       <c r="A49" s="18"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -7695,7 +7739,7 @@
       <c r="EE49" s="15"/>
       <c r="EF49" s="15"/>
     </row>
-    <row r="50" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:136" s="16" customFormat="1">
       <c r="A50" s="18"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -7833,7 +7877,7 @@
       <c r="EE50" s="15"/>
       <c r="EF50" s="15"/>
     </row>
-    <row r="51" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:136" s="16" customFormat="1">
       <c r="A51" s="18"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -7971,7 +8015,7 @@
       <c r="EE51" s="15"/>
       <c r="EF51" s="15"/>
     </row>
-    <row r="52" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:136" s="16" customFormat="1">
       <c r="A52" s="18"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -8109,7 +8153,7 @@
       <c r="EE52" s="15"/>
       <c r="EF52" s="15"/>
     </row>
-    <row r="53" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:136" s="16" customFormat="1">
       <c r="A53" s="18"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -8247,7 +8291,7 @@
       <c r="EE53" s="15"/>
       <c r="EF53" s="15"/>
     </row>
-    <row r="54" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:136" s="16" customFormat="1">
       <c r="A54" s="18"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
@@ -8385,7 +8429,7 @@
       <c r="EE54" s="15"/>
       <c r="EF54" s="15"/>
     </row>
-    <row r="55" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:136" s="16" customFormat="1">
       <c r="A55" s="18"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
@@ -8523,7 +8567,7 @@
       <c r="EE55" s="15"/>
       <c r="EF55" s="15"/>
     </row>
-    <row r="56" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:136" s="16" customFormat="1">
       <c r="A56" s="18"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
@@ -8661,7 +8705,7 @@
       <c r="EE56" s="15"/>
       <c r="EF56" s="15"/>
     </row>
-    <row r="57" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:136" s="16" customFormat="1">
       <c r="A57" s="18"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -8799,7 +8843,7 @@
       <c r="EE57" s="15"/>
       <c r="EF57" s="15"/>
     </row>
-    <row r="58" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:136" s="16" customFormat="1">
       <c r="A58" s="18"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -8937,7 +8981,7 @@
       <c r="EE58" s="15"/>
       <c r="EF58" s="15"/>
     </row>
-    <row r="59" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:136" s="16" customFormat="1">
       <c r="A59" s="18"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -9075,7 +9119,7 @@
       <c r="EE59" s="15"/>
       <c r="EF59" s="15"/>
     </row>
-    <row r="60" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:136" s="16" customFormat="1">
       <c r="A60" s="18"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
@@ -9213,7 +9257,7 @@
       <c r="EE60" s="15"/>
       <c r="EF60" s="15"/>
     </row>
-    <row r="61" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:136" s="16" customFormat="1">
       <c r="A61" s="18"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -9351,7 +9395,7 @@
       <c r="EE61" s="15"/>
       <c r="EF61" s="15"/>
     </row>
-    <row r="62" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:136" s="16" customFormat="1">
       <c r="A62" s="18"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
@@ -9489,7 +9533,7 @@
       <c r="EE62" s="15"/>
       <c r="EF62" s="15"/>
     </row>
-    <row r="63" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:136" s="16" customFormat="1">
       <c r="A63" s="18"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -9627,7 +9671,7 @@
       <c r="EE63" s="15"/>
       <c r="EF63" s="15"/>
     </row>
-    <row r="64" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:136" s="16" customFormat="1">
       <c r="A64" s="18"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
@@ -9765,7 +9809,7 @@
       <c r="EE64" s="15"/>
       <c r="EF64" s="15"/>
     </row>
-    <row r="65" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:136" s="16" customFormat="1">
       <c r="A65" s="18"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -9903,7 +9947,7 @@
       <c r="EE65" s="15"/>
       <c r="EF65" s="15"/>
     </row>
-    <row r="66" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:136" s="16" customFormat="1">
       <c r="A66" s="18"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
@@ -10041,7 +10085,7 @@
       <c r="EE66" s="15"/>
       <c r="EF66" s="15"/>
     </row>
-    <row r="67" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:136" s="16" customFormat="1">
       <c r="A67" s="18"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -10179,7 +10223,7 @@
       <c r="EE67" s="15"/>
       <c r="EF67" s="15"/>
     </row>
-    <row r="68" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:136" s="16" customFormat="1">
       <c r="A68" s="18"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -10317,7 +10361,7 @@
       <c r="EE68" s="15"/>
       <c r="EF68" s="15"/>
     </row>
-    <row r="69" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:136" s="16" customFormat="1">
       <c r="A69" s="18"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
@@ -10455,7 +10499,7 @@
       <c r="EE69" s="15"/>
       <c r="EF69" s="15"/>
     </row>
-    <row r="70" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:136" s="16" customFormat="1">
       <c r="A70" s="18"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
@@ -10593,7 +10637,7 @@
       <c r="EE70" s="15"/>
       <c r="EF70" s="15"/>
     </row>
-    <row r="71" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:136" s="16" customFormat="1">
       <c r="A71" s="18"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
@@ -10731,7 +10775,7 @@
       <c r="EE71" s="15"/>
       <c r="EF71" s="15"/>
     </row>
-    <row r="72" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:136" s="16" customFormat="1">
       <c r="A72" s="18"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
@@ -10869,7 +10913,7 @@
       <c r="EE72" s="15"/>
       <c r="EF72" s="15"/>
     </row>
-    <row r="73" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:136" s="16" customFormat="1">
       <c r="A73" s="18"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -11007,7 +11051,7 @@
       <c r="EE73" s="15"/>
       <c r="EF73" s="15"/>
     </row>
-    <row r="74" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:136" s="16" customFormat="1">
       <c r="A74" s="18"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -11145,7 +11189,7 @@
       <c r="EE74" s="15"/>
       <c r="EF74" s="15"/>
     </row>
-    <row r="75" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:136" s="16" customFormat="1">
       <c r="A75" s="18"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -11283,7 +11327,7 @@
       <c r="EE75" s="15"/>
       <c r="EF75" s="15"/>
     </row>
-    <row r="76" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:136" s="16" customFormat="1">
       <c r="A76" s="18"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -11421,7 +11465,7 @@
       <c r="EE76" s="15"/>
       <c r="EF76" s="15"/>
     </row>
-    <row r="77" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:136" s="16" customFormat="1">
       <c r="A77" s="18"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -11559,7 +11603,7 @@
       <c r="EE77" s="15"/>
       <c r="EF77" s="15"/>
     </row>
-    <row r="78" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:136" s="16" customFormat="1">
       <c r="A78" s="18"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -11697,7 +11741,7 @@
       <c r="EE78" s="15"/>
       <c r="EF78" s="15"/>
     </row>
-    <row r="79" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:136" s="16" customFormat="1">
       <c r="A79" s="18"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
@@ -11835,7 +11879,7 @@
       <c r="EE79" s="15"/>
       <c r="EF79" s="15"/>
     </row>
-    <row r="80" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:136" s="16" customFormat="1">
       <c r="A80" s="18"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
@@ -11973,7 +12017,7 @@
       <c r="EE80" s="15"/>
       <c r="EF80" s="15"/>
     </row>
-    <row r="81" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:136" s="16" customFormat="1">
       <c r="A81" s="18"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
@@ -12111,7 +12155,7 @@
       <c r="EE81" s="15"/>
       <c r="EF81" s="15"/>
     </row>
-    <row r="82" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:136" s="16" customFormat="1">
       <c r="A82" s="18"/>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -12249,7 +12293,7 @@
       <c r="EE82" s="15"/>
       <c r="EF82" s="15"/>
     </row>
-    <row r="83" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:136" s="16" customFormat="1">
       <c r="A83" s="18"/>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
@@ -12387,7 +12431,7 @@
       <c r="EE83" s="15"/>
       <c r="EF83" s="15"/>
     </row>
-    <row r="84" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:136" s="16" customFormat="1">
       <c r="A84" s="18"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
@@ -12525,7 +12569,7 @@
       <c r="EE84" s="15"/>
       <c r="EF84" s="15"/>
     </row>
-    <row r="85" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:136" s="16" customFormat="1">
       <c r="A85" s="18"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
@@ -12663,7 +12707,7 @@
       <c r="EE85" s="15"/>
       <c r="EF85" s="15"/>
     </row>
-    <row r="86" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:136" s="16" customFormat="1">
       <c r="A86" s="18"/>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -12801,7 +12845,7 @@
       <c r="EE86" s="15"/>
       <c r="EF86" s="15"/>
     </row>
-    <row r="87" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:136" s="16" customFormat="1">
       <c r="A87" s="18"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
@@ -12939,7 +12983,7 @@
       <c r="EE87" s="15"/>
       <c r="EF87" s="15"/>
     </row>
-    <row r="88" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:136" s="16" customFormat="1">
       <c r="A88" s="18"/>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
@@ -13077,7 +13121,7 @@
       <c r="EE88" s="15"/>
       <c r="EF88" s="15"/>
     </row>
-    <row r="89" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:136" s="16" customFormat="1">
       <c r="A89" s="18"/>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
@@ -13215,7 +13259,7 @@
       <c r="EE89" s="15"/>
       <c r="EF89" s="15"/>
     </row>
-    <row r="90" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:136" s="16" customFormat="1">
       <c r="A90" s="18"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -13353,7 +13397,7 @@
       <c r="EE90" s="15"/>
       <c r="EF90" s="15"/>
     </row>
-    <row r="91" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:136" s="16" customFormat="1">
       <c r="A91" s="18"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -13491,7 +13535,7 @@
       <c r="EE91" s="15"/>
       <c r="EF91" s="15"/>
     </row>
-    <row r="92" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:136" s="16" customFormat="1">
       <c r="A92" s="18"/>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
@@ -13629,7 +13673,7 @@
       <c r="EE92" s="15"/>
       <c r="EF92" s="15"/>
     </row>
-    <row r="93" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:136" s="16" customFormat="1">
       <c r="A93" s="18"/>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
@@ -13767,7 +13811,7 @@
       <c r="EE93" s="15"/>
       <c r="EF93" s="15"/>
     </row>
-    <row r="94" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:136" s="16" customFormat="1">
       <c r="A94" s="18"/>
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
@@ -13905,7 +13949,7 @@
       <c r="EE94" s="15"/>
       <c r="EF94" s="15"/>
     </row>
-    <row r="95" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:136" s="16" customFormat="1">
       <c r="A95" s="18"/>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
@@ -14043,7 +14087,7 @@
       <c r="EE95" s="15"/>
       <c r="EF95" s="15"/>
     </row>
-    <row r="96" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:136" s="16" customFormat="1">
       <c r="A96" s="18"/>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
@@ -14181,7 +14225,7 @@
       <c r="EE96" s="15"/>
       <c r="EF96" s="15"/>
     </row>
-    <row r="97" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:136" s="16" customFormat="1">
       <c r="A97" s="18"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
@@ -14319,7 +14363,7 @@
       <c r="EE97" s="15"/>
       <c r="EF97" s="15"/>
     </row>
-    <row r="98" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:136" s="16" customFormat="1">
       <c r="A98" s="18"/>
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
@@ -14457,7 +14501,7 @@
       <c r="EE98" s="15"/>
       <c r="EF98" s="15"/>
     </row>
-    <row r="99" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:136" s="16" customFormat="1">
       <c r="A99" s="18"/>
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
@@ -14595,7 +14639,7 @@
       <c r="EE99" s="15"/>
       <c r="EF99" s="15"/>
     </row>
-    <row r="100" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:136" s="16" customFormat="1">
       <c r="A100" s="18"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
@@ -14733,7 +14777,7 @@
       <c r="EE100" s="15"/>
       <c r="EF100" s="15"/>
     </row>
-    <row r="101" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:136" s="16" customFormat="1">
       <c r="A101" s="18"/>
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
@@ -14871,7 +14915,7 @@
       <c r="EE101" s="15"/>
       <c r="EF101" s="15"/>
     </row>
-    <row r="102" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:136" s="16" customFormat="1">
       <c r="A102" s="18"/>
       <c r="B102" s="19"/>
       <c r="C102" s="19"/>
@@ -15009,7 +15053,7 @@
       <c r="EE102" s="15"/>
       <c r="EF102" s="15"/>
     </row>
-    <row r="103" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:136" s="16" customFormat="1">
       <c r="A103" s="18"/>
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
@@ -15147,7 +15191,7 @@
       <c r="EE103" s="15"/>
       <c r="EF103" s="15"/>
     </row>
-    <row r="104" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:136" s="16" customFormat="1">
       <c r="A104" s="18"/>
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
@@ -15285,7 +15329,7 @@
       <c r="EE104" s="15"/>
       <c r="EF104" s="15"/>
     </row>
-    <row r="105" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:136">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -15423,7 +15467,7 @@
       <c r="EE105" s="1"/>
       <c r="EF105" s="1"/>
     </row>
-    <row r="106" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:136">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -15561,7 +15605,7 @@
       <c r="EE106" s="1"/>
       <c r="EF106" s="1"/>
     </row>
-    <row r="107" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:136">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -15699,7 +15743,7 @@
       <c r="EE107" s="1"/>
       <c r="EF107" s="1"/>
     </row>
-    <row r="108" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:136">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -15837,7 +15881,7 @@
       <c r="EE108" s="1"/>
       <c r="EF108" s="1"/>
     </row>
-    <row r="109" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:136">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -15975,7 +16019,7 @@
       <c r="EE109" s="1"/>
       <c r="EF109" s="1"/>
     </row>
-    <row r="110" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:136">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -16113,7 +16157,7 @@
       <c r="EE110" s="1"/>
       <c r="EF110" s="1"/>
     </row>
-    <row r="111" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:136">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -16251,7 +16295,7 @@
       <c r="EE111" s="1"/>
       <c r="EF111" s="1"/>
     </row>
-    <row r="112" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:136">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -16389,7 +16433,7 @@
       <c r="EE112" s="1"/>
       <c r="EF112" s="1"/>
     </row>
-    <row r="113" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:136">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -16527,7 +16571,7 @@
       <c r="EE113" s="1"/>
       <c r="EF113" s="1"/>
     </row>
-    <row r="114" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:136">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -16665,7 +16709,7 @@
       <c r="EE114" s="1"/>
       <c r="EF114" s="1"/>
     </row>
-    <row r="115" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:136">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -16803,7 +16847,7 @@
       <c r="EE115" s="1"/>
       <c r="EF115" s="1"/>
     </row>
-    <row r="116" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:136">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -16941,7 +16985,7 @@
       <c r="EE116" s="1"/>
       <c r="EF116" s="1"/>
     </row>
-    <row r="117" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:136">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -17079,7 +17123,7 @@
       <c r="EE117" s="1"/>
       <c r="EF117" s="1"/>
     </row>
-    <row r="118" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:136">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -17217,7 +17261,7 @@
       <c r="EE118" s="1"/>
       <c r="EF118" s="1"/>
     </row>
-    <row r="119" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:136">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -17355,7 +17399,7 @@
       <c r="EE119" s="1"/>
       <c r="EF119" s="1"/>
     </row>
-    <row r="120" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:136">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -17493,7 +17537,7 @@
       <c r="EE120" s="1"/>
       <c r="EF120" s="1"/>
     </row>
-    <row r="121" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:136">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -17631,7 +17675,7 @@
       <c r="EE121" s="1"/>
       <c r="EF121" s="1"/>
     </row>
-    <row r="122" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:136">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -17769,7 +17813,7 @@
       <c r="EE122" s="1"/>
       <c r="EF122" s="1"/>
     </row>
-    <row r="123" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:136">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -17907,7 +17951,7 @@
       <c r="EE123" s="1"/>
       <c r="EF123" s="1"/>
     </row>
-    <row r="124" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:136">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -18045,7 +18089,7 @@
       <c r="EE124" s="1"/>
       <c r="EF124" s="1"/>
     </row>
-    <row r="125" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:136">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -18183,7 +18227,7 @@
       <c r="EE125" s="1"/>
       <c r="EF125" s="1"/>
     </row>
-    <row r="126" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:136">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -18321,7 +18365,7 @@
       <c r="EE126" s="1"/>
       <c r="EF126" s="1"/>
     </row>
-    <row r="127" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:136">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -18459,7 +18503,7 @@
       <c r="EE127" s="1"/>
       <c r="EF127" s="1"/>
     </row>
-    <row r="128" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:136">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -18597,7 +18641,7 @@
       <c r="EE128" s="1"/>
       <c r="EF128" s="1"/>
     </row>
-    <row r="129" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:136">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -18735,7 +18779,7 @@
       <c r="EE129" s="1"/>
       <c r="EF129" s="1"/>
     </row>
-    <row r="130" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:136">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -18873,7 +18917,7 @@
       <c r="EE130" s="1"/>
       <c r="EF130" s="1"/>
     </row>
-    <row r="131" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:136">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -19011,7 +19055,7 @@
       <c r="EE131" s="1"/>
       <c r="EF131" s="1"/>
     </row>
-    <row r="132" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:136">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -19149,7 +19193,7 @@
       <c r="EE132" s="1"/>
       <c r="EF132" s="1"/>
     </row>
-    <row r="133" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:136">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -19287,7 +19331,7 @@
       <c r="EE133" s="1"/>
       <c r="EF133" s="1"/>
     </row>
-    <row r="134" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:136">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -19425,7 +19469,7 @@
       <c r="EE134" s="1"/>
       <c r="EF134" s="1"/>
     </row>
-    <row r="135" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:136">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -19563,7 +19607,7 @@
       <c r="EE135" s="1"/>
       <c r="EF135" s="1"/>
     </row>
-    <row r="136" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:136">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -19701,7 +19745,7 @@
       <c r="EE136" s="1"/>
       <c r="EF136" s="1"/>
     </row>
-    <row r="137" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:136">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -19839,7 +19883,7 @@
       <c r="EE137" s="1"/>
       <c r="EF137" s="1"/>
     </row>
-    <row r="138" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:136">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -19977,7 +20021,7 @@
       <c r="EE138" s="1"/>
       <c r="EF138" s="1"/>
     </row>
-    <row r="139" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:136">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -20115,7 +20159,7 @@
       <c r="EE139" s="1"/>
       <c r="EF139" s="1"/>
     </row>
-    <row r="140" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:136">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -20253,7 +20297,7 @@
       <c r="EE140" s="1"/>
       <c r="EF140" s="1"/>
     </row>
-    <row r="141" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:136">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -20391,7 +20435,7 @@
       <c r="EE141" s="1"/>
       <c r="EF141" s="1"/>
     </row>
-    <row r="142" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:136">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -20529,7 +20573,7 @@
       <c r="EE142" s="1"/>
       <c r="EF142" s="1"/>
     </row>
-    <row r="143" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:136">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -20667,7 +20711,7 @@
       <c r="EE143" s="1"/>
       <c r="EF143" s="1"/>
     </row>
-    <row r="144" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:136">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -20805,7 +20849,7 @@
       <c r="EE144" s="1"/>
       <c r="EF144" s="1"/>
     </row>
-    <row r="145" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:136">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -20943,7 +20987,7 @@
       <c r="EE145" s="1"/>
       <c r="EF145" s="1"/>
     </row>
-    <row r="146" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:136">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -21081,7 +21125,7 @@
       <c r="EE146" s="1"/>
       <c r="EF146" s="1"/>
     </row>
-    <row r="147" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:136">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -21219,7 +21263,7 @@
       <c r="EE147" s="1"/>
       <c r="EF147" s="1"/>
     </row>
-    <row r="148" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:136">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -21357,7 +21401,7 @@
       <c r="EE148" s="1"/>
       <c r="EF148" s="1"/>
     </row>
-    <row r="149" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:136">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -21495,7 +21539,7 @@
       <c r="EE149" s="1"/>
       <c r="EF149" s="1"/>
     </row>
-    <row r="150" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:136">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -21633,7 +21677,7 @@
       <c r="EE150" s="1"/>
       <c r="EF150" s="1"/>
     </row>
-    <row r="151" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:136">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -21771,7 +21815,7 @@
       <c r="EE151" s="1"/>
       <c r="EF151" s="1"/>
     </row>
-    <row r="152" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:136">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -21909,7 +21953,7 @@
       <c r="EE152" s="1"/>
       <c r="EF152" s="1"/>
     </row>
-    <row r="153" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:136">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -22047,7 +22091,7 @@
       <c r="EE153" s="1"/>
       <c r="EF153" s="1"/>
     </row>
-    <row r="154" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:136">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -22185,7 +22229,7 @@
       <c r="EE154" s="1"/>
       <c r="EF154" s="1"/>
     </row>
-    <row r="155" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:136">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -22323,7 +22367,7 @@
       <c r="EE155" s="1"/>
       <c r="EF155" s="1"/>
     </row>
-    <row r="156" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:136">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -22461,7 +22505,7 @@
       <c r="EE156" s="1"/>
       <c r="EF156" s="1"/>
     </row>
-    <row r="157" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:136">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -22599,7 +22643,7 @@
       <c r="EE157" s="1"/>
       <c r="EF157" s="1"/>
     </row>
-    <row r="158" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:136">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -22737,7 +22781,7 @@
       <c r="EE158" s="1"/>
       <c r="EF158" s="1"/>
     </row>
-    <row r="159" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:136">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -22875,7 +22919,7 @@
       <c r="EE159" s="1"/>
       <c r="EF159" s="1"/>
     </row>
-    <row r="160" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:136">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -23013,7 +23057,7 @@
       <c r="EE160" s="1"/>
       <c r="EF160" s="1"/>
     </row>
-    <row r="161" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:136">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -23151,7 +23195,7 @@
       <c r="EE161" s="1"/>
       <c r="EF161" s="1"/>
     </row>
-    <row r="162" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:136">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -23289,7 +23333,7 @@
       <c r="EE162" s="1"/>
       <c r="EF162" s="1"/>
     </row>
-    <row r="163" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:136">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -23427,7 +23471,7 @@
       <c r="EE163" s="1"/>
       <c r="EF163" s="1"/>
     </row>
-    <row r="164" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:136">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -23565,7 +23609,7 @@
       <c r="EE164" s="1"/>
       <c r="EF164" s="1"/>
     </row>
-    <row r="165" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:136">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -23703,7 +23747,7 @@
       <c r="EE165" s="1"/>
       <c r="EF165" s="1"/>
     </row>
-    <row r="166" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:136">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -23841,7 +23885,7 @@
       <c r="EE166" s="1"/>
       <c r="EF166" s="1"/>
     </row>
-    <row r="167" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:136">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -23979,7 +24023,7 @@
       <c r="EE167" s="1"/>
       <c r="EF167" s="1"/>
     </row>
-    <row r="168" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:136">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -24117,7 +24161,7 @@
       <c r="EE168" s="1"/>
       <c r="EF168" s="1"/>
     </row>
-    <row r="169" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:136">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -24255,7 +24299,7 @@
       <c r="EE169" s="1"/>
       <c r="EF169" s="1"/>
     </row>
-    <row r="170" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:136">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -24393,7 +24437,7 @@
       <c r="EE170" s="1"/>
       <c r="EF170" s="1"/>
     </row>
-    <row r="171" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:136">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -24531,7 +24575,7 @@
       <c r="EE171" s="1"/>
       <c r="EF171" s="1"/>
     </row>
-    <row r="172" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:136">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -24669,7 +24713,7 @@
       <c r="EE172" s="1"/>
       <c r="EF172" s="1"/>
     </row>
-    <row r="173" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:136">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -24807,7 +24851,7 @@
       <c r="EE173" s="1"/>
       <c r="EF173" s="1"/>
     </row>
-    <row r="174" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:136">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -24945,7 +24989,7 @@
       <c r="EE174" s="1"/>
       <c r="EF174" s="1"/>
     </row>
-    <row r="175" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:136">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -25083,7 +25127,7 @@
       <c r="EE175" s="1"/>
       <c r="EF175" s="1"/>
     </row>
-    <row r="176" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:136">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -25221,7 +25265,7 @@
       <c r="EE176" s="1"/>
       <c r="EF176" s="1"/>
     </row>
-    <row r="177" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:136">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -25359,7 +25403,7 @@
       <c r="EE177" s="1"/>
       <c r="EF177" s="1"/>
     </row>
-    <row r="178" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:136">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -25497,7 +25541,7 @@
       <c r="EE178" s="1"/>
       <c r="EF178" s="1"/>
     </row>
-    <row r="179" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:136">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -25635,7 +25679,7 @@
       <c r="EE179" s="1"/>
       <c r="EF179" s="1"/>
     </row>
-    <row r="180" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:136">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -25773,7 +25817,7 @@
       <c r="EE180" s="1"/>
       <c r="EF180" s="1"/>
     </row>
-    <row r="181" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:136">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -25911,7 +25955,7 @@
       <c r="EE181" s="1"/>
       <c r="EF181" s="1"/>
     </row>
-    <row r="182" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:136">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -26049,7 +26093,7 @@
       <c r="EE182" s="1"/>
       <c r="EF182" s="1"/>
     </row>
-    <row r="183" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:136">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -26187,7 +26231,7 @@
       <c r="EE183" s="1"/>
       <c r="EF183" s="1"/>
     </row>
-    <row r="184" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:136">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -26325,7 +26369,7 @@
       <c r="EE184" s="1"/>
       <c r="EF184" s="1"/>
     </row>
-    <row r="185" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:136">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -26463,7 +26507,7 @@
       <c r="EE185" s="1"/>
       <c r="EF185" s="1"/>
     </row>
-    <row r="186" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:136">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -26601,7 +26645,7 @@
       <c r="EE186" s="1"/>
       <c r="EF186" s="1"/>
     </row>
-    <row r="187" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:136">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -26739,7 +26783,7 @@
       <c r="EE187" s="1"/>
       <c r="EF187" s="1"/>
     </row>
-    <row r="188" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:136">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -26877,7 +26921,7 @@
       <c r="EE188" s="1"/>
       <c r="EF188" s="1"/>
     </row>
-    <row r="189" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:136">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -27015,7 +27059,7 @@
       <c r="EE189" s="1"/>
       <c r="EF189" s="1"/>
     </row>
-    <row r="190" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:136">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -27153,7 +27197,7 @@
       <c r="EE190" s="1"/>
       <c r="EF190" s="1"/>
     </row>
-    <row r="191" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:136">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -27291,7 +27335,7 @@
       <c r="EE191" s="1"/>
       <c r="EF191" s="1"/>
     </row>
-    <row r="192" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:136">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -27429,7 +27473,7 @@
       <c r="EE192" s="1"/>
       <c r="EF192" s="1"/>
     </row>
-    <row r="193" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:136">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -27567,7 +27611,7 @@
       <c r="EE193" s="1"/>
       <c r="EF193" s="1"/>
     </row>
-    <row r="194" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:136">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -27705,7 +27749,7 @@
       <c r="EE194" s="1"/>
       <c r="EF194" s="1"/>
     </row>
-    <row r="195" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:136">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -27843,7 +27887,7 @@
       <c r="EE195" s="1"/>
       <c r="EF195" s="1"/>
     </row>
-    <row r="196" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:136">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -27981,7 +28025,7 @@
       <c r="EE196" s="1"/>
       <c r="EF196" s="1"/>
     </row>
-    <row r="197" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:136">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -28119,7 +28163,7 @@
       <c r="EE197" s="1"/>
       <c r="EF197" s="1"/>
     </row>
-    <row r="198" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:136">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -28257,7 +28301,7 @@
       <c r="EE198" s="1"/>
       <c r="EF198" s="1"/>
     </row>
-    <row r="199" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:136">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -28395,7 +28439,7 @@
       <c r="EE199" s="1"/>
       <c r="EF199" s="1"/>
     </row>
-    <row r="200" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:136">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -28533,7 +28577,7 @@
       <c r="EE200" s="1"/>
       <c r="EF200" s="1"/>
     </row>
-    <row r="201" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:136">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -28671,7 +28715,7 @@
       <c r="EE201" s="1"/>
       <c r="EF201" s="1"/>
     </row>
-    <row r="202" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:136">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -28809,7 +28853,7 @@
       <c r="EE202" s="1"/>
       <c r="EF202" s="1"/>
     </row>
-    <row r="203" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:136">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -28947,7 +28991,7 @@
       <c r="EE203" s="1"/>
       <c r="EF203" s="1"/>
     </row>
-    <row r="204" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:136">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -29085,7 +29129,7 @@
       <c r="EE204" s="1"/>
       <c r="EF204" s="1"/>
     </row>
-    <row r="205" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:136">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -29223,7 +29267,7 @@
       <c r="EE205" s="1"/>
       <c r="EF205" s="1"/>
     </row>
-    <row r="206" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:136">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -29361,7 +29405,7 @@
       <c r="EE206" s="1"/>
       <c r="EF206" s="1"/>
     </row>
-    <row r="207" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:136">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -29499,7 +29543,7 @@
       <c r="EE207" s="1"/>
       <c r="EF207" s="1"/>
     </row>
-    <row r="208" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:136">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -29637,7 +29681,7 @@
       <c r="EE208" s="1"/>
       <c r="EF208" s="1"/>
     </row>
-    <row r="209" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:136">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -29775,7 +29819,7 @@
       <c r="EE209" s="1"/>
       <c r="EF209" s="1"/>
     </row>
-    <row r="210" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:136">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -29913,7 +29957,7 @@
       <c r="EE210" s="1"/>
       <c r="EF210" s="1"/>
     </row>
-    <row r="211" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:136">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -30051,7 +30095,7 @@
       <c r="EE211" s="1"/>
       <c r="EF211" s="1"/>
     </row>
-    <row r="212" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:136">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -30189,7 +30233,7 @@
       <c r="EE212" s="1"/>
       <c r="EF212" s="1"/>
     </row>
-    <row r="213" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:136">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -30327,7 +30371,7 @@
       <c r="EE213" s="1"/>
       <c r="EF213" s="1"/>
     </row>
-    <row r="214" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:136">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -30465,7 +30509,7 @@
       <c r="EE214" s="1"/>
       <c r="EF214" s="1"/>
     </row>
-    <row r="215" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:136">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -30603,7 +30647,7 @@
       <c r="EE215" s="1"/>
       <c r="EF215" s="1"/>
     </row>
-    <row r="216" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:136">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -30741,7 +30785,7 @@
       <c r="EE216" s="1"/>
       <c r="EF216" s="1"/>
     </row>
-    <row r="217" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:136">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -30879,7 +30923,7 @@
       <c r="EE217" s="1"/>
       <c r="EF217" s="1"/>
     </row>
-    <row r="218" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:136">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -31017,7 +31061,7 @@
       <c r="EE218" s="1"/>
       <c r="EF218" s="1"/>
     </row>
-    <row r="219" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:136">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -31155,7 +31199,7 @@
       <c r="EE219" s="1"/>
       <c r="EF219" s="1"/>
     </row>
-    <row r="220" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:136">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -31293,7 +31337,7 @@
       <c r="EE220" s="1"/>
       <c r="EF220" s="1"/>
     </row>
-    <row r="221" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:136">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -31431,7 +31475,7 @@
       <c r="EE221" s="1"/>
       <c r="EF221" s="1"/>
     </row>
-    <row r="222" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:136">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -31569,7 +31613,7 @@
       <c r="EE222" s="1"/>
       <c r="EF222" s="1"/>
     </row>
-    <row r="223" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:136">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -31707,7 +31751,7 @@
       <c r="EE223" s="1"/>
       <c r="EF223" s="1"/>
     </row>
-    <row r="224" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:136">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -31845,7 +31889,7 @@
       <c r="EE224" s="1"/>
       <c r="EF224" s="1"/>
     </row>
-    <row r="225" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:136">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -31983,7 +32027,7 @@
       <c r="EE225" s="1"/>
       <c r="EF225" s="1"/>
     </row>
-    <row r="226" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:136">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -32121,7 +32165,7 @@
       <c r="EE226" s="1"/>
       <c r="EF226" s="1"/>
     </row>
-    <row r="227" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:136">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -32259,7 +32303,7 @@
       <c r="EE227" s="1"/>
       <c r="EF227" s="1"/>
     </row>
-    <row r="228" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:136">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -32397,7 +32441,7 @@
       <c r="EE228" s="1"/>
       <c r="EF228" s="1"/>
     </row>
-    <row r="229" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:136">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -32535,7 +32579,7 @@
       <c r="EE229" s="1"/>
       <c r="EF229" s="1"/>
     </row>
-    <row r="230" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:136">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -32673,7 +32717,7 @@
       <c r="EE230" s="1"/>
       <c r="EF230" s="1"/>
     </row>
-    <row r="231" spans="1:136" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:136">
       <c r="DE231" s="1"/>
       <c r="DF231" s="1"/>
       <c r="DG231" s="1"/>
@@ -32777,6 +32821,7 @@
     <mergeCell ref="AN14:BR14"/>
     <mergeCell ref="BS14:BU14"/>
     <mergeCell ref="BV14:CA14"/>
+    <mergeCell ref="AN15:BR15"/>
     <mergeCell ref="CB16:CC16"/>
     <mergeCell ref="CD16:DD16"/>
     <mergeCell ref="A17:D17"/>
@@ -32790,7 +32835,6 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="I16:AM16"/>
-    <mergeCell ref="AN15:BR15"/>
     <mergeCell ref="BS16:BU16"/>
     <mergeCell ref="BV16:CA16"/>
     <mergeCell ref="AN16:BR16"/>
